--- a/Excels/student_data.xlsx
+++ b/Excels/student_data.xlsx
@@ -311,13 +311,13 @@
     <t>2nd year-D</t>
   </si>
   <si>
-    <t>Luna three</t>
-  </si>
-  <si>
-    <t>Lunathree@student.com</t>
-  </si>
-  <si>
-    <t>8002127803</t>
+    <t>Luna Four</t>
+  </si>
+  <si>
+    <t>LunaFour@student.com</t>
+  </si>
+  <si>
+    <t>8002127807</t>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
